--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apuslive-my.sharepoint.com/personal/nurilhuda3333_oficeoriginal_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apuslive-my.sharepoint.com/personal/nurilhuda3333_oficeoriginal_com/Documents/Desktop/Machine Learning Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{71A12267-6864-4EDF-8631-F75F18DD9555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2931CEB6-565D-4EDB-9682-BAACA1503F28}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{71A12267-6864-4EDF-8631-F75F18DD9555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{92ADBB17-AE48-4953-BF15-F4DB7C4E8240}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1D1D3CA6-E72C-4EC6-AC9E-1A402CD4E052}"/>
+    <workbookView xWindow="2400" yWindow="1470" windowWidth="20910" windowHeight="11835" xr2:uid="{1D1D3CA6-E72C-4EC6-AC9E-1A402CD4E052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Job desc</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>27-Des-21</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Waiting</t>
   </si>
 </sst>
 </file>
@@ -122,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +145,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -158,6 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -473,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490F96A8-183D-40BA-9956-6D27E7562FC7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +506,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +519,11 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -514,8 +536,11 @@
       <c r="D2" s="2">
         <v>44487</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -528,8 +553,11 @@
       <c r="D3" s="2">
         <v>44501</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -542,8 +570,11 @@
       <c r="D4" s="2">
         <v>44508</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -556,8 +587,11 @@
       <c r="D5" s="2">
         <v>44515</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -570,8 +604,11 @@
       <c r="D6" s="2">
         <v>44519</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -584,8 +621,11 @@
       <c r="D7" s="2">
         <v>44522</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -598,8 +638,11 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -612,8 +655,11 @@
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -625,6 +671,9 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apuslive-my.sharepoint.com/personal/nurilhuda3333_oficeoriginal_com/Documents/Desktop/Machine Learning Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{71A12267-6864-4EDF-8631-F75F18DD9555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{92ADBB17-AE48-4953-BF15-F4DB7C4E8240}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{71A12267-6864-4EDF-8631-F75F18DD9555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EE9C40-A662-48DE-9383-5460213EA34E}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1470" windowWidth="20910" windowHeight="11835" xr2:uid="{1D1D3CA6-E72C-4EC6-AC9E-1A402CD4E052}"/>
+    <workbookView xWindow="2925" yWindow="1575" windowWidth="20910" windowHeight="11835" xr2:uid="{1D1D3CA6-E72C-4EC6-AC9E-1A402CD4E052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +153,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -177,6 +189,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -495,7 +509,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,8 +550,8 @@
       <c r="D2" s="2">
         <v>44487</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,8 +584,8 @@
       <c r="D4" s="2">
         <v>44508</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,8 +601,8 @@
       <c r="D5" s="2">
         <v>44515</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,8 +618,8 @@
       <c r="D6" s="2">
         <v>44519</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,8 +635,8 @@
       <c r="D7" s="2">
         <v>44522</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +652,7 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -655,7 +669,7 @@
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -672,7 +686,7 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
